--- a/data/aguas_residuais.xlsx
+++ b/data/aguas_residuais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4344FB35-4587-4772-ACC0-6EA2A85C860D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EE6D9-8073-4F78-A463-31A74247EF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
   <si>
     <t>Ano</t>
   </si>
@@ -70,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +84,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,18 +110,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B9092C86-7254-4166-8527-343C064BF7DA}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{878D4EA2-3F9A-405E-B656-8002DABB86E1}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{8CE915B5-F323-4C23-8F3D-28D4506603CA}"/>
+    <cellStyle name="Percentagem 2" xfId="4" xr:uid="{DBD3E9D1-092B-43C8-B42B-F6A71AEEDC27}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -424,19 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C094BF8C-7E84-4C15-AD2D-FEE22ED5903E}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G69" sqref="G2:G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -482,7 +499,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -505,7 +522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -528,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -544,7 +561,6 @@
         <v>15.702200640000001</v>
       </c>
       <c r="E5">
-        <f>+SUM(E2:E4)</f>
         <v>59.413177000000005</v>
       </c>
       <c r="F5" s="2">
@@ -554,7 +570,7 @@
         <v>26.428818374752115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -577,7 +593,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -600,7 +616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -623,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -639,7 +655,6 @@
         <v>16.4587608</v>
       </c>
       <c r="E9">
-        <f>+SUM(E6:E8)</f>
         <v>59.256081000000002</v>
       </c>
       <c r="F9" s="2">
@@ -649,7 +664,7 @@
         <v>27.775648544830361</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -672,7 +687,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -695,7 +710,7 @@
         <v>53.999999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -718,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -734,7 +749,6 @@
         <v>15.442584</v>
       </c>
       <c r="E13">
-        <f>+SUM(E10:E12)</f>
         <v>56.980429000000001</v>
       </c>
       <c r="F13" s="2">
@@ -744,7 +758,7 @@
         <v>27.101557975283058</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -767,7 +781,7 @@
         <v>27.999999999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -790,7 +804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -813,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -829,7 +843,6 @@
         <v>17.130851558999993</v>
       </c>
       <c r="E17">
-        <f>+SUM(E14:E16)</f>
         <v>61.815799649999995</v>
       </c>
       <c r="F17" s="2">
@@ -839,7 +852,7 @@
         <v>27.712739552015154</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -853,7 +866,6 @@
         <v>9.0415583999999996</v>
       </c>
       <c r="E18">
-        <f>+SUM(C18:D18)</f>
         <v>32.29128</v>
       </c>
       <c r="F18" s="2">
@@ -863,7 +875,7 @@
         <v>27.999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -877,7 +889,6 @@
         <v>6.7230215999999992</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E21" si="0">+SUM(C19:D19)</f>
         <v>12.45004</v>
       </c>
       <c r="F19" s="2">
@@ -887,7 +898,7 @@
         <v>53.999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -901,7 +912,6 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>12.696399999999999</v>
       </c>
       <c r="F20" s="2">
@@ -911,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -927,7 +937,6 @@
         <v>15.764579999999999</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>57.437719999999999</v>
       </c>
       <c r="F21" s="2">
@@ -937,7 +946,7 @@
         <v>27.446388888695438</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -960,7 +969,7 @@
         <v>21.205118470209015</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -983,7 +992,7 @@
         <v>57.483977673179524</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -997,7 +1006,6 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f>+C24+D24</f>
         <v>13.690211</v>
       </c>
       <c r="F24" s="2">
@@ -1007,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -1023,7 +1031,6 @@
         <v>15.179464608999998</v>
       </c>
       <c r="E25">
-        <f>+SUM(E22:E24)</f>
         <v>60.485101</v>
       </c>
       <c r="F25" s="2">
@@ -1033,7 +1040,7 @@
         <v>25.096204450414984</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2009</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2009</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -1118,7 +1125,6 @@
         <v>18.974492040000001</v>
       </c>
       <c r="E29">
-        <f>+SUM(E26:E28)</f>
         <v>66.844161999999997</v>
       </c>
       <c r="F29" s="2">
@@ -1128,7 +1134,7 @@
         <v>28.386161890996558</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2010</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -1213,7 +1219,6 @@
         <v>21.276315280000002</v>
       </c>
       <c r="E33">
-        <f>+SUM(E30:E32)</f>
         <v>73.685417999999999</v>
       </c>
       <c r="F33" s="2">
@@ -1223,7 +1228,7 @@
         <v>28.874526137586678</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -1308,7 +1313,6 @@
         <v>21.336277639999999</v>
       </c>
       <c r="E37">
-        <f>+SUM(E34:E36)</f>
         <v>83.470648000000011</v>
       </c>
       <c r="F37" s="2">
@@ -1318,7 +1322,7 @@
         <v>25.561413684005419</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2012</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>22.400000000000013</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2012</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>53.496009726312167</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2012</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2012</v>
       </c>
@@ -1403,7 +1407,6 @@
         <v>19.736148498832016</v>
       </c>
       <c r="E41">
-        <f>+SUM(E38:E40)</f>
         <v>78.587382000000005</v>
       </c>
       <c r="F41" s="2">
@@ -1413,7 +1416,7 @@
         <v>25.113635289227492</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2013</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>22.400000000000013</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2013</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>51.028779318403558</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2013</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2013</v>
       </c>
@@ -1498,7 +1501,6 @@
         <v>20.690731042271796</v>
       </c>
       <c r="E45">
-        <f>+SUM(E42:E44)</f>
         <v>84.856664000000009</v>
       </c>
       <c r="F45" s="2">
@@ -1508,7 +1510,7 @@
         <v>24.383153976300314</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>22.39965544088658</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>51.031668486694635</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -1593,7 +1595,6 @@
         <v>22.401</v>
       </c>
       <c r="E49">
-        <f>+SUM(E46:E48)</f>
         <v>93.37299999999999</v>
       </c>
       <c r="F49" s="2">
@@ -1603,7 +1604,7 @@
         <v>23.990875306566139</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>22.000000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>51.000000000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -1688,7 +1689,6 @@
         <v>19.215315770000004</v>
       </c>
       <c r="E53">
-        <f>+SUM(E50:E52)</f>
         <v>79.325786000000008</v>
       </c>
       <c r="F53" s="2">
@@ -1698,7 +1698,7 @@
         <v>24.223290734238677</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2016</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -1783,7 +1783,6 @@
         <v>21.048552472499999</v>
       </c>
       <c r="E57">
-        <f>+SUM(E54:E56)</f>
         <v>89.877694750000003</v>
       </c>
       <c r="F57" s="2">
@@ -1793,7 +1792,7 @@
         <v>23.419105853847018</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>22.4000005888538</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>51.028779119218747</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2017</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -1878,7 +1877,6 @@
         <v>18.378147999999999</v>
       </c>
       <c r="E61">
-        <f>+SUM(E58:E60)</f>
         <v>77.797696000000002</v>
       </c>
       <c r="F61" s="2">
@@ -1888,7 +1886,7 @@
         <v>23.622997781322468</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1911,7 +1909,7 @@
         <v>22.40000060757442</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>51.028777020376424</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2018</v>
       </c>
@@ -1973,9 +1971,114 @@
         <v>19.234642999999998</v>
       </c>
       <c r="E65" s="1">
-        <f>+SUM(E62:E64)</f>
         <v>80.192757</v>
       </c>
+      <c r="F65" s="2">
+        <v>76.014488440645579</v>
+      </c>
+      <c r="G65" s="2">
+        <v>23.985511559354418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>37.690936999999998</v>
+      </c>
+      <c r="D66">
+        <v>10.879859</v>
+      </c>
+      <c r="E66">
+        <v>48.570796000000001</v>
+      </c>
+      <c r="F66" s="2">
+        <v>77.599998567040146</v>
+      </c>
+      <c r="G66" s="2">
+        <v>22.400001432959836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>6.9094376741636658</v>
+      </c>
+      <c r="D67">
+        <v>7.1997419999999996</v>
+      </c>
+      <c r="E67">
+        <v>14.109179674163666</v>
+      </c>
+      <c r="F67" s="2">
+        <v>48.971221812534104</v>
+      </c>
+      <c r="G67" s="2">
+        <v>51.028778187465882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>12.240069999999999</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>12.240069999999999</v>
+      </c>
+      <c r="F68" s="2">
+        <v>100</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2019</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <f>+SUM(C66:C68)</f>
+        <v>56.840444674163663</v>
+      </c>
+      <c r="D69" s="1">
+        <f>+SUM(D66:D68)</f>
+        <v>18.079601</v>
+      </c>
+      <c r="E69">
+        <v>74.92004567416366</v>
+      </c>
+      <c r="F69" s="2">
+        <v>75.86813937803727</v>
+      </c>
+      <c r="G69" s="2">
+        <v>24.131860621962741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D73" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
